--- a/train_results_False_1024_SVR.xlsx
+++ b/train_results_False_1024_SVR.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3739296596217763</v>
+        <v>25.38710339924694</v>
       </c>
       <c r="C2">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6535331947520199</v>
+        <v>27.34714937983656</v>
       </c>
       <c r="C3">
-        <v>-1.678412484670001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08790345534935116</v>
+        <v>23.38203392912623</v>
       </c>
       <c r="C4">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.5896256454721284</v>
+        <v>18.63249386991687</v>
       </c>
       <c r="C5">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.9666094709818732</v>
+        <v>15.98980327734807</v>
       </c>
       <c r="C6">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.3743113757095949</v>
+        <v>20.14186630619547</v>
       </c>
       <c r="C7">
-        <v>0.3187087719679989</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.02910300377263156</v>
+        <v>22.56180810544973</v>
       </c>
       <c r="C8">
-        <v>-2.819624631320286</v>
+        <v>2.999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.3209396352060379</v>
+        <v>20.51600701726459</v>
       </c>
       <c r="C9">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4964266551442</v>
+        <v>26.24581837792627</v>
       </c>
       <c r="C10">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4079295337767324</v>
+        <v>25.62544558131889</v>
       </c>
       <c r="C11">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.329425932406417</v>
+        <v>20.45651730906064</v>
       </c>
       <c r="C12">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.04274626369106194</v>
+        <v>23.06547794580036</v>
       </c>
       <c r="C13">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3461432889923985</v>
+        <v>25.19231843688258</v>
       </c>
       <c r="C14">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.4025772952931594</v>
+        <v>19.94371966244281</v>
       </c>
       <c r="C15">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3739398794620732</v>
+        <v>25.38717504124848</v>
       </c>
       <c r="C16">
-        <v>0.3187087719679989</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6987468839099537</v>
+        <v>27.66410141572679</v>
       </c>
       <c r="C17">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1704422174596462</v>
+        <v>21.5710074792778</v>
       </c>
       <c r="C18">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.4010786925373513</v>
+        <v>19.95422500282291</v>
       </c>
       <c r="C19">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.7761906786094656</v>
+        <v>17.32465617341182</v>
       </c>
       <c r="C20">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5706580245827284</v>
+        <v>26.76618696780792</v>
       </c>
       <c r="C21">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.5429173258064963</v>
+        <v>18.95992340036996</v>
       </c>
       <c r="C22">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.4632493763041524</v>
+        <v>19.51840290647186</v>
       </c>
       <c r="C23">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.2408873356883957</v>
+        <v>21.07718085161337</v>
       </c>
       <c r="C24">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.09835930482136546</v>
+        <v>23.45533037626065</v>
       </c>
       <c r="C25">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.3336139684898124</v>
+        <v>20.42715879866841</v>
       </c>
       <c r="C26">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.6455660339606089</v>
+        <v>27.29129886464675</v>
       </c>
       <c r="C27">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.1740756198059326</v>
+        <v>21.54553700136919</v>
       </c>
       <c r="C28">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1190635735046609</v>
+        <v>23.60046916570707</v>
       </c>
       <c r="C29">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.2397783926318028</v>
+        <v>24.44669092723645</v>
       </c>
       <c r="C30">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.4802284443999899</v>
+        <v>26.13226746074225</v>
       </c>
       <c r="C31">
-        <v>0.3187087719679989</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.2222591762507847</v>
+        <v>24.3238796414825</v>
       </c>
       <c r="C32">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.03013754290032677</v>
+        <v>22.97708967669373</v>
       </c>
       <c r="C33">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1767741083882493</v>
+        <v>24.00502521641495</v>
       </c>
       <c r="C34">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.90243679400444</v>
+        <v>29.09198604308455</v>
       </c>
       <c r="C35">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5494574211761465</v>
+        <v>26.617568827219</v>
       </c>
       <c r="C36">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.061393212973418</v>
+        <v>30.20628486603733</v>
       </c>
       <c r="C37">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.2136373197226529</v>
+        <v>24.26343965017369</v>
       </c>
       <c r="C38">
-        <v>-0.9651548930135722</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.8034429443661932</v>
+        <v>17.13361533434105</v>
       </c>
       <c r="C39">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1438639455105107</v>
+        <v>23.77432200860675</v>
       </c>
       <c r="C40">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.4104051910557894</v>
+        <v>19.88884540765605</v>
       </c>
       <c r="C41">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.9995974135808107</v>
+        <v>15.75855482668435</v>
       </c>
       <c r="C42">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.09961284457597806</v>
+        <v>23.46411780291602</v>
       </c>
       <c r="C43">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.4408978531237736</v>
+        <v>19.67508909840198</v>
       </c>
       <c r="C44">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.2326743348520021</v>
+        <v>21.13475472767489</v>
       </c>
       <c r="C45">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.3443110787914114</v>
+        <v>25.17947447824534</v>
       </c>
       <c r="C46">
-        <v>-2.106367039663857</v>
+        <v>8.000000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.260430556518868</v>
+        <v>24.59146445736533</v>
       </c>
       <c r="C47">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.2645893461001828</v>
+        <v>20.91102762247813</v>
       </c>
       <c r="C48">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.3208401312845814</v>
+        <v>20.51670454872181</v>
       </c>
       <c r="C49">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.4718642066165966</v>
+        <v>19.45801216956826</v>
       </c>
       <c r="C50">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.2514528208478475</v>
+        <v>21.00311584842906</v>
       </c>
       <c r="C51">
-        <v>-1.678412484670001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.3587722306759604</v>
+        <v>20.25079711334991</v>
       </c>
       <c r="C52">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.03696180343088032</v>
+        <v>23.0249283580508</v>
       </c>
       <c r="C53">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9512199712130655</v>
+        <v>29.43396051191098</v>
       </c>
       <c r="C54">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.5091295878926692</v>
+        <v>19.19677848827277</v>
       </c>
       <c r="C55">
-        <v>-2.819624631320286</v>
+        <v>2.999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.6498219251540643</v>
+        <v>18.21051252414431</v>
       </c>
       <c r="C56">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0243443153082789</v>
+        <v>22.93647862915763</v>
       </c>
       <c r="C57">
-        <v>-2.249018557995143</v>
+        <v>7.000000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1150570854972725</v>
+        <v>23.57238332368971</v>
       </c>
       <c r="C58">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.8304613044324136</v>
+        <v>16.94421419524154</v>
       </c>
       <c r="C59">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.6188574341858443</v>
+        <v>18.4275763965127</v>
       </c>
       <c r="C60">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.08951489088996639</v>
+        <v>22.13831533212335</v>
       </c>
       <c r="C61">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.9890964367622695</v>
+        <v>15.83216762058503</v>
       </c>
       <c r="C62">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.0443591364096356</v>
+        <v>23.07678432891804</v>
       </c>
       <c r="C63">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-1.097483567763629</v>
+        <v>15.07236406385283</v>
       </c>
       <c r="C64">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.1468893041089311</v>
+        <v>23.79553004504275</v>
       </c>
       <c r="C65">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.3099798780680471</v>
+        <v>20.59283590255229</v>
       </c>
       <c r="C66">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.5053026024546137</v>
+        <v>19.2236060011014</v>
       </c>
       <c r="C67">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.2645670543342911</v>
+        <v>20.91118388976608</v>
       </c>
       <c r="C68">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1171632099697031</v>
+        <v>23.58714744605636</v>
       </c>
       <c r="C69">
-        <v>-0.9651548930135722</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.3745542012587105</v>
+        <v>20.14016407721147</v>
       </c>
       <c r="C70">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.08950629723958552</v>
+        <v>22.13837557438702</v>
       </c>
       <c r="C71">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1278608640471572</v>
+        <v>23.6621389652676</v>
       </c>
       <c r="C72">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.5054641149163934</v>
+        <v>26.30917178543228</v>
       </c>
       <c r="C73">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.1395700613763114</v>
+        <v>21.78742407578144</v>
       </c>
       <c r="C74">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.5412001329523851</v>
+        <v>18.97196107703963</v>
       </c>
       <c r="C75">
-        <v>-0.2518973013571441</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.01069862406454331</v>
+        <v>22.84082110371829</v>
       </c>
       <c r="C76">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.4177992888746889</v>
+        <v>25.69463345406929</v>
       </c>
       <c r="C77">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.3679324622951387</v>
+        <v>20.1865830641317</v>
       </c>
       <c r="C78">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.2196629157031392</v>
+        <v>24.30567962105499</v>
       </c>
       <c r="C79">
-        <v>-1.678412484670001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.2152634821065038</v>
+        <v>24.27483919504271</v>
       </c>
       <c r="C80">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.1581651162004636</v>
+        <v>23.87457450403929</v>
       </c>
       <c r="C81">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.3153521347519617</v>
+        <v>20.5551758990223</v>
       </c>
       <c r="C82">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.04895337065321709</v>
+        <v>22.42265524459839</v>
       </c>
       <c r="C83">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5530509348169722</v>
+        <v>26.64275968170735</v>
       </c>
       <c r="C84">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.3687263777819925</v>
+        <v>20.18101764501706</v>
       </c>
       <c r="C85">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.2763722841638989</v>
+        <v>20.82842816471174</v>
       </c>
       <c r="C86">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1352871093167353</v>
+        <v>23.71419761389924</v>
       </c>
       <c r="C87">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.06327626449784265</v>
+        <v>22.32225046789378</v>
       </c>
       <c r="C88">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.122274146318934</v>
+        <v>21.90866999913159</v>
       </c>
       <c r="C89">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.4551415522431008</v>
+        <v>25.9564060857611</v>
       </c>
       <c r="C90">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.7188537476351634</v>
+        <v>17.72659322704448</v>
       </c>
       <c r="C91">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.4660147208300348</v>
+        <v>19.49901759211818</v>
       </c>
       <c r="C92">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.386745550474569</v>
+        <v>25.47694394915984</v>
       </c>
       <c r="C93">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.051080321208979</v>
+        <v>30.1339905653171</v>
       </c>
       <c r="C94">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-1.114695866996253</v>
+        <v>14.9517042949701</v>
       </c>
       <c r="C95">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.4316176645044775</v>
+        <v>25.79150151261808</v>
       </c>
       <c r="C96">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.4079864244584852</v>
+        <v>25.62584439012526</v>
       </c>
       <c r="C97">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-1.037238722851868</v>
+        <v>15.49468585626343</v>
       </c>
       <c r="C98">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.5622160275420034</v>
+        <v>18.82463776190455</v>
       </c>
       <c r="C99">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.106519968740636</v>
+        <v>22.01910820380399</v>
       </c>
       <c r="C100">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.3984425547373128</v>
+        <v>19.97270456638365</v>
       </c>
       <c r="C101">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.001186012760686014</v>
+        <v>22.75750872846807</v>
       </c>
       <c r="C102">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.4220874491894973</v>
+        <v>25.72469384434744</v>
       </c>
       <c r="C103">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.1684348441827044</v>
+        <v>21.58507934686409</v>
       </c>
       <c r="C104">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.07225730622744059</v>
+        <v>23.2723530136692</v>
       </c>
       <c r="C105">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.296790514609214</v>
+        <v>31.85644116573491</v>
       </c>
       <c r="C106">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.6341557936351854</v>
+        <v>27.21131205161526</v>
       </c>
       <c r="C107">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.651718864425085</v>
+        <v>18.1972148088924</v>
       </c>
       <c r="C108">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.631818940382821</v>
+        <v>27.1949304997068</v>
       </c>
       <c r="C109">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.2127738677404153</v>
+        <v>21.27425879566084</v>
       </c>
       <c r="C110">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.2064290152297887</v>
+        <v>24.21290878602878</v>
       </c>
       <c r="C111">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.2612917190957226</v>
+        <v>24.59750128464154</v>
       </c>
       <c r="C112">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.4422087670348001</v>
+        <v>25.86574609588095</v>
       </c>
       <c r="C113">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.5720910303907943</v>
+        <v>26.77623246767241</v>
       </c>
       <c r="C114">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.1834744782635395</v>
+        <v>24.05199541311296</v>
       </c>
       <c r="C115">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.3742385330721443</v>
+        <v>20.14237693964895</v>
       </c>
       <c r="C116">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.06520071535569998</v>
+        <v>22.30875989393867</v>
       </c>
       <c r="C117">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.8634934444951141</v>
+        <v>16.71265591637354</v>
       </c>
       <c r="C118">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-1.470659742623871</v>
+        <v>12.45636544550235</v>
       </c>
       <c r="C119">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.1764480486920508</v>
+        <v>21.52890606106185</v>
       </c>
       <c r="C120">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.06555412869791115</v>
+        <v>22.30628243455832</v>
       </c>
       <c r="C121">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.1297630214952231</v>
+        <v>21.85617230920938</v>
       </c>
       <c r="C122">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.1773217093656229</v>
+        <v>24.00886394861899</v>
       </c>
       <c r="C123">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.1042785125826882</v>
+        <v>23.49682455613735</v>
       </c>
       <c r="C124">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.7268869490195271</v>
+        <v>27.86136580827411</v>
       </c>
       <c r="C125">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.3565328398491923</v>
+        <v>20.26649544487112</v>
       </c>
       <c r="C126">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.3851596866647181</v>
+        <v>25.46582690092648</v>
       </c>
       <c r="C127">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.3518714372396962</v>
+        <v>25.23247327234669</v>
       </c>
       <c r="C128">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.01314483726354441</v>
+        <v>22.85796927870876</v>
       </c>
       <c r="C129">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.2638414450580039</v>
+        <v>24.61537509343172</v>
       </c>
       <c r="C130">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.016437545538873</v>
+        <v>22.65059410914543</v>
       </c>
       <c r="C131">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.5206851226748079</v>
+        <v>19.11577314800501</v>
       </c>
       <c r="C132">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.06227490573200503</v>
+        <v>23.20237548653029</v>
       </c>
       <c r="C133">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.8972497545908165</v>
+        <v>29.05562442931205</v>
       </c>
       <c r="C134">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.376444942578717</v>
+        <v>25.40473575946549</v>
       </c>
       <c r="C135">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.3877678009205003</v>
+        <v>25.48411001691635</v>
       </c>
       <c r="C136">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.5564882153680837</v>
+        <v>18.86479024146399</v>
       </c>
       <c r="C137">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.207631358634365</v>
+        <v>24.2213373216563</v>
       </c>
       <c r="C138">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-0.6152479350657031</v>
+        <v>18.45287931065175</v>
       </c>
       <c r="C139">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.16432338117647</v>
+        <v>23.917744496536</v>
       </c>
       <c r="C140">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.6554227481928082</v>
+        <v>27.36039531975288</v>
       </c>
       <c r="C141">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.2039690101128745</v>
+        <v>21.33598164116952</v>
       </c>
       <c r="C142">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.4885991481475646</v>
+        <v>19.3406987211961</v>
       </c>
       <c r="C143">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.8589022883910901</v>
+        <v>28.78680523517862</v>
       </c>
       <c r="C144">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.4657041743698214</v>
+        <v>26.03045101882791</v>
       </c>
       <c r="C145">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.0882986954921486</v>
+        <v>23.38480459814834</v>
       </c>
       <c r="C146">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.5115727654220168</v>
+        <v>26.35199397602009</v>
       </c>
       <c r="C147">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.1196934669982253</v>
+        <v>21.92676079375402</v>
       </c>
       <c r="C148">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.060854229913675</v>
+        <v>30.20250654621257</v>
       </c>
       <c r="C149">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.6237152986147698</v>
+        <v>27.13812324057037</v>
       </c>
       <c r="C150">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.342907952535877</v>
+        <v>25.169638436737</v>
       </c>
       <c r="C151">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.3577753840177545</v>
+        <v>25.27386047135531</v>
       </c>
       <c r="C152">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.09203535467017693</v>
+        <v>23.4109989157535</v>
       </c>
       <c r="C153">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.4651175907055419</v>
+        <v>19.50530655514491</v>
       </c>
       <c r="C154">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.442864685685469</v>
+        <v>25.87034414473695</v>
       </c>
       <c r="C155">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.03400433066635157</v>
+        <v>23.00419620742861</v>
       </c>
       <c r="C156">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.6103772441629184</v>
+        <v>18.4870232928523</v>
       </c>
       <c r="C157">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.301531232959425</v>
+        <v>24.87958390342063</v>
       </c>
       <c r="C158">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.2044928996521465</v>
+        <v>24.19933644133669</v>
       </c>
       <c r="C159">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/train_results_False_1024_SVR.xlsx
+++ b/train_results_False_1024_SVR.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.38710339924694</v>
+        <v>0.3739296596217763</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.34714937983656</v>
+        <v>0.6535331947520199</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>-1.678412484670001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.38203392912623</v>
+        <v>0.08790345534935116</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.63249386991687</v>
+        <v>-0.5896256454721284</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.98980327734807</v>
+        <v>-0.9666094709818732</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>0.4613602902992845</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.14186630619547</v>
+        <v>-0.3743113757095949</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>0.3187087719679989</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.56180810544973</v>
+        <v>-0.02910300377263156</v>
       </c>
       <c r="C8">
-        <v>2.999999999999999</v>
+        <v>-2.819624631320286</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.51600701726459</v>
+        <v>-0.3209396352060379</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>0.1760572536367133</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.24581837792627</v>
+        <v>0.4964266551442</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>-1.821064003001286</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.62544558131889</v>
+        <v>0.4079295337767324</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>-1.821064003001286</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.45651730906064</v>
+        <v>-0.329425932406417</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>-0.1092457830258584</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.06547794580036</v>
+        <v>0.04274626369106194</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.19231843688258</v>
+        <v>0.3461432889923985</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.94371966244281</v>
+        <v>-0.4025772952931594</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.38717504124848</v>
+        <v>0.3739398794620732</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>0.3187087719679989</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.66410141572679</v>
+        <v>0.6987468839099537</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>-1.535760966338715</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.5710074792778</v>
+        <v>-0.1704422174596462</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.95422500282291</v>
+        <v>-0.4010786925373513</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.32465617341182</v>
+        <v>-0.7761906786094656</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.76618696780792</v>
+        <v>0.5706580245827284</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>-1.393109448007429</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.95992340036996</v>
+        <v>-0.5429173258064963</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.51840290647186</v>
+        <v>-0.4632493763041524</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.07718085161337</v>
+        <v>-0.2408873356883957</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>0.03340573530542768</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.45533037626065</v>
+        <v>0.09835930482136546</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>20.42715879866841</v>
+        <v>-0.3336139684898124</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>0.1760572536367133</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>27.29129886464675</v>
+        <v>0.6455660339606089</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>21.54553700136919</v>
+        <v>-0.1740756198059326</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>23.60046916570707</v>
+        <v>0.1190635735046609</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>-0.1092457830258584</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>24.44669092723645</v>
+        <v>0.2397783926318028</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>-1.821064003001286</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>26.13226746074225</v>
+        <v>0.4802284443999899</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>0.3187087719679989</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>24.3238796414825</v>
+        <v>0.2222591762507847</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>-1.535760966338715</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22.97708967669373</v>
+        <v>0.03013754290032677</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>-1.393109448007429</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>24.00502521641495</v>
+        <v>0.1767741083882493</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>29.09198604308455</v>
+        <v>0.90243679400444</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>26.617568827219</v>
+        <v>0.5494574211761465</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>30.20628486603733</v>
+        <v>1.061393212973418</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>-1.250457929676143</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>24.26343965017369</v>
+        <v>0.2136373197226529</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>-0.9651548930135722</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>17.13361533434105</v>
+        <v>-0.8034429443661932</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>-1.535760966338715</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>23.77432200860675</v>
+        <v>0.1438639455105107</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>-1.250457929676143</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>19.88884540765605</v>
+        <v>-0.4104051910557894</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>0.4613602902992845</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>15.75855482668435</v>
+        <v>-0.9995974135808107</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>23.46411780291602</v>
+        <v>0.09961284457597806</v>
       </c>
       <c r="C43">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>19.67508909840198</v>
+        <v>-0.4408978531237736</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>21.13475472767489</v>
+        <v>-0.2326743348520021</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>25.17947447824534</v>
+        <v>0.3443110787914114</v>
       </c>
       <c r="C46">
-        <v>8.000000000000002</v>
+        <v>-2.106367039663857</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>24.59146445736533</v>
+        <v>0.260430556518868</v>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>-1.535760966338715</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>20.91102762247813</v>
+        <v>-0.2645893461001828</v>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>20.51670454872181</v>
+        <v>-0.3208401312845814</v>
       </c>
       <c r="C49">
-        <v>13</v>
+        <v>-1.393109448007429</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>19.45801216956826</v>
+        <v>-0.4718642066165966</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>-1.393109448007429</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>21.00311584842906</v>
+        <v>-0.2514528208478475</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>-1.678412484670001</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>20.25079711334991</v>
+        <v>-0.3587722306759604</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>0.03340573530542768</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>23.0249283580508</v>
+        <v>0.03696180343088032</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>29.43396051191098</v>
+        <v>0.9512199712130655</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>19.19677848827277</v>
+        <v>-0.5091295878926692</v>
       </c>
       <c r="C55">
-        <v>2.999999999999999</v>
+        <v>-2.819624631320286</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>18.21051252414431</v>
+        <v>-0.6498219251540643</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>22.93647862915763</v>
+        <v>0.0243443153082789</v>
       </c>
       <c r="C57">
-        <v>7.000000000000002</v>
+        <v>-2.249018557995143</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>23.57238332368971</v>
+        <v>0.1150570854972725</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>16.94421419524154</v>
+        <v>-0.8304613044324136</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>0.03340573530542768</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>18.4275763965127</v>
+        <v>-0.6188574341858443</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>22.13831533212335</v>
+        <v>-0.08951489088996639</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>15.83216762058503</v>
+        <v>-0.9890964367622695</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>23.07678432891804</v>
+        <v>0.0443591364096356</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>15.07236406385283</v>
+        <v>-1.097483567763629</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>23.79553004504275</v>
+        <v>0.1468893041089311</v>
       </c>
       <c r="C65">
-        <v>14</v>
+        <v>-1.250457929676143</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>20.59283590255229</v>
+        <v>-0.3099798780680471</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>0.1760572536367133</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>19.2236060011014</v>
+        <v>-0.5053026024546137</v>
       </c>
       <c r="C67">
-        <v>27</v>
+        <v>0.6040118086305701</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>20.91118388976608</v>
+        <v>-0.2645670543342911</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>23.58714744605636</v>
+        <v>0.1171632099697031</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>-0.9651548930135722</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>20.14016407721147</v>
+        <v>-0.3745542012587105</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>22.13837557438702</v>
+        <v>-0.08950629723958552</v>
       </c>
       <c r="C71">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>23.6621389652676</v>
+        <v>0.1278608640471572</v>
       </c>
       <c r="C72">
-        <v>23</v>
+        <v>0.03340573530542768</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>26.30917178543228</v>
+        <v>0.5054641149163934</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>-1.821064003001286</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>21.78742407578144</v>
+        <v>-0.1395700613763114</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>18.97196107703963</v>
+        <v>-0.5412001329523851</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>-0.2518973013571441</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>22.84082110371829</v>
+        <v>0.01069862406454331</v>
       </c>
       <c r="C76">
-        <v>22</v>
+        <v>-0.1092457830258584</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>25.69463345406929</v>
+        <v>0.4177992888746889</v>
       </c>
       <c r="C77">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>20.1865830641317</v>
+        <v>-0.3679324622951387</v>
       </c>
       <c r="C78">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>24.30567962105499</v>
+        <v>0.2196629157031392</v>
       </c>
       <c r="C79">
-        <v>11</v>
+        <v>-1.678412484670001</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>24.27483919504271</v>
+        <v>0.2152634821065038</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>-1.821064003001286</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>23.87457450403929</v>
+        <v>0.1581651162004636</v>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>-1.250457929676143</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>20.5551758990223</v>
+        <v>-0.3153521347519617</v>
       </c>
       <c r="C82">
-        <v>24</v>
+        <v>0.1760572536367133</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>22.42265524459839</v>
+        <v>-0.04895337065321709</v>
       </c>
       <c r="C83">
-        <v>22</v>
+        <v>-0.1092457830258584</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>26.64275968170735</v>
+        <v>0.5530509348169722</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>20.18101764501706</v>
+        <v>-0.3687263777819925</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>20.82842816471174</v>
+        <v>-0.2763722841638989</v>
       </c>
       <c r="C86">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>23.71419761389924</v>
+        <v>0.1352871093167353</v>
       </c>
       <c r="C87">
-        <v>26</v>
+        <v>0.4613602902992845</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>22.32225046789378</v>
+        <v>-0.06327626449784265</v>
       </c>
       <c r="C88">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>21.90866999913159</v>
+        <v>-0.122274146318934</v>
       </c>
       <c r="C89">
-        <v>27</v>
+        <v>0.6040118086305701</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>25.9564060857611</v>
+        <v>0.4551415522431008</v>
       </c>
       <c r="C90">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>17.72659322704448</v>
+        <v>-0.7188537476351634</v>
       </c>
       <c r="C91">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>19.49901759211818</v>
+        <v>-0.4660147208300348</v>
       </c>
       <c r="C92">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>25.47694394915984</v>
+        <v>0.386745550474569</v>
       </c>
       <c r="C93">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>30.1339905653171</v>
+        <v>1.051080321208979</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>14.9517042949701</v>
+        <v>-1.114695866996253</v>
       </c>
       <c r="C95">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>25.79150151261808</v>
+        <v>0.4316176645044775</v>
       </c>
       <c r="C96">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>25.62584439012526</v>
+        <v>0.4079864244584852</v>
       </c>
       <c r="C97">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>15.49468585626343</v>
+        <v>-1.037238722851868</v>
       </c>
       <c r="C98">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>18.82463776190455</v>
+        <v>-0.5622160275420034</v>
       </c>
       <c r="C99">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>22.01910820380399</v>
+        <v>-0.106519968740636</v>
       </c>
       <c r="C100">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>19.97270456638365</v>
+        <v>-0.3984425547373128</v>
       </c>
       <c r="C101">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>22.75750872846807</v>
+        <v>-0.001186012760686014</v>
       </c>
       <c r="C102">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>25.72469384434744</v>
+        <v>0.4220874491894973</v>
       </c>
       <c r="C103">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>21.58507934686409</v>
+        <v>-0.1684348441827044</v>
       </c>
       <c r="C104">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>23.2723530136692</v>
+        <v>0.07225730622744059</v>
       </c>
       <c r="C105">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>31.85644116573491</v>
+        <v>1.296790514609214</v>
       </c>
       <c r="C106">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>27.21131205161526</v>
+        <v>0.6341557936351854</v>
       </c>
       <c r="C107">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>18.1972148088924</v>
+        <v>-0.651718864425085</v>
       </c>
       <c r="C108">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>27.1949304997068</v>
+        <v>0.631818940382821</v>
       </c>
       <c r="C109">
-        <v>27</v>
+        <v>0.6040118086305701</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>21.27425879566084</v>
+        <v>-0.2127738677404153</v>
       </c>
       <c r="C110">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>24.21290878602878</v>
+        <v>0.2064290152297887</v>
       </c>
       <c r="C111">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>24.59750128464154</v>
+        <v>0.2612917190957226</v>
       </c>
       <c r="C112">
-        <v>27</v>
+        <v>0.6040118086305701</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>25.86574609588095</v>
+        <v>0.4422087670348001</v>
       </c>
       <c r="C113">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>26.77623246767241</v>
+        <v>0.5720910303907943</v>
       </c>
       <c r="C114">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>24.05199541311296</v>
+        <v>0.1834744782635395</v>
       </c>
       <c r="C115">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>20.14237693964895</v>
+        <v>-0.3742385330721443</v>
       </c>
       <c r="C116">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>22.30875989393867</v>
+        <v>-0.06520071535569998</v>
       </c>
       <c r="C117">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>16.71265591637354</v>
+        <v>-0.8634934444951141</v>
       </c>
       <c r="C118">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>12.45636544550235</v>
+        <v>-1.470659742623871</v>
       </c>
       <c r="C119">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>21.52890606106185</v>
+        <v>-0.1764480486920508</v>
       </c>
       <c r="C120">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>22.30628243455832</v>
+        <v>-0.06555412869791115</v>
       </c>
       <c r="C121">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>21.85617230920938</v>
+        <v>-0.1297630214952231</v>
       </c>
       <c r="C122">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>24.00886394861899</v>
+        <v>0.1773217093656229</v>
       </c>
       <c r="C123">
-        <v>26</v>
+        <v>0.4613602902992845</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>23.49682455613735</v>
+        <v>0.1042785125826882</v>
       </c>
       <c r="C124">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>27.86136580827411</v>
+        <v>0.7268869490195271</v>
       </c>
       <c r="C125">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>20.26649544487112</v>
+        <v>-0.3565328398491923</v>
       </c>
       <c r="C126">
-        <v>27</v>
+        <v>0.6040118086305701</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>25.46582690092648</v>
+        <v>0.3851596866647181</v>
       </c>
       <c r="C127">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>25.23247327234669</v>
+        <v>0.3518714372396962</v>
       </c>
       <c r="C128">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>22.85796927870876</v>
+        <v>0.01314483726354441</v>
       </c>
       <c r="C129">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>24.61537509343172</v>
+        <v>0.2638414450580039</v>
       </c>
       <c r="C130">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>22.65059410914543</v>
+        <v>-0.016437545538873</v>
       </c>
       <c r="C131">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>19.11577314800501</v>
+        <v>-0.5206851226748079</v>
       </c>
       <c r="C132">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>23.20237548653029</v>
+        <v>0.06227490573200503</v>
       </c>
       <c r="C133">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>29.05562442931205</v>
+        <v>0.8972497545908165</v>
       </c>
       <c r="C134">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>25.40473575946549</v>
+        <v>0.376444942578717</v>
       </c>
       <c r="C135">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>25.48411001691635</v>
+        <v>0.3877678009205003</v>
       </c>
       <c r="C136">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>18.86479024146399</v>
+        <v>-0.5564882153680837</v>
       </c>
       <c r="C137">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>24.2213373216563</v>
+        <v>0.207631358634365</v>
       </c>
       <c r="C138">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>18.45287931065175</v>
+        <v>-0.6152479350657031</v>
       </c>
       <c r="C139">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>23.917744496536</v>
+        <v>0.16432338117647</v>
       </c>
       <c r="C140">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>27.36039531975288</v>
+        <v>0.6554227481928082</v>
       </c>
       <c r="C141">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>21.33598164116952</v>
+        <v>-0.2039690101128745</v>
       </c>
       <c r="C142">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>19.3406987211961</v>
+        <v>-0.4885991481475646</v>
       </c>
       <c r="C143">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>28.78680523517862</v>
+        <v>0.8589022883910901</v>
       </c>
       <c r="C144">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>26.03045101882791</v>
+        <v>0.4657041743698214</v>
       </c>
       <c r="C145">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>23.38480459814834</v>
+        <v>0.0882986954921486</v>
       </c>
       <c r="C146">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>26.35199397602009</v>
+        <v>0.5115727654220168</v>
       </c>
       <c r="C147">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>21.92676079375402</v>
+        <v>-0.1196934669982253</v>
       </c>
       <c r="C148">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>30.20250654621257</v>
+        <v>1.060854229913675</v>
       </c>
       <c r="C149">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>27.13812324057037</v>
+        <v>0.6237152986147698</v>
       </c>
       <c r="C150">
-        <v>26</v>
+        <v>0.4613602902992845</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>25.169638436737</v>
+        <v>0.342907952535877</v>
       </c>
       <c r="C151">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>25.27386047135531</v>
+        <v>0.3577753840177545</v>
       </c>
       <c r="C152">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>23.4109989157535</v>
+        <v>0.09203535467017693</v>
       </c>
       <c r="C153">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>19.50530655514491</v>
+        <v>-0.4651175907055419</v>
       </c>
       <c r="C154">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>25.87034414473695</v>
+        <v>0.442864685685469</v>
       </c>
       <c r="C155">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>23.00419620742861</v>
+        <v>0.03400433066635157</v>
       </c>
       <c r="C156">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>18.4870232928523</v>
+        <v>-0.6103772441629184</v>
       </c>
       <c r="C157">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>24.87958390342063</v>
+        <v>0.301531232959425</v>
       </c>
       <c r="C158">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>24.19933644133669</v>
+        <v>0.2044928996521465</v>
       </c>
       <c r="C159">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
   </sheetData>
